--- a/Tiger/TimeTracking.xlsx
+++ b/Tiger/TimeTracking.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="361">
   <si>
     <t xml:space="preserve">T3 - Tiger Time Tracking</t>
   </si>
@@ -1590,6 +1590,9 @@
   </si>
   <si>
     <t xml:space="preserve">Simple device speed testing with simulated ML math (too simple!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eval script refactoring</t>
   </si>
   <si>
     <t xml:space="preserve">Sum hours</t>
@@ -2045,311 +2048,311 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="32" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2618,13 +2621,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z398"/>
+  <dimension ref="A1:Z399"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B373" activeCellId="0" sqref="B373"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C375" activeCellId="0" sqref="C375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="87.29"/>
@@ -8631,15 +8634,37 @@
       <c r="G373" s="23"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="D374" s="20"/>
       <c r="E374" s="21"/>
-      <c r="F374" s="22"/>
+      <c r="F374" s="22" t="n">
+        <v>3</v>
+      </c>
       <c r="G374" s="23"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="D375" s="20"/>
       <c r="E375" s="21"/>
-      <c r="F375" s="22"/>
+      <c r="F375" s="22" t="n">
+        <v>2</v>
+      </c>
       <c r="G375" s="23"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8709,50 +8734,52 @@
       <c r="G386" s="23"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="B387" s="34"/>
-      <c r="C387" s="35"/>
-      <c r="D387" s="36" t="n">
-        <f aca="false">SUM(D7:D386)</f>
+      <c r="D387" s="20"/>
+      <c r="E387" s="21"/>
+      <c r="F387" s="22"/>
+      <c r="G387" s="23"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="B388" s="34"/>
+      <c r="C388" s="35"/>
+      <c r="D388" s="36" t="n">
+        <f aca="false">SUM(D7:D387)</f>
         <v>386.5</v>
       </c>
-      <c r="E387" s="36" t="n">
-        <f aca="false">SUM(E7:E386)</f>
+      <c r="E388" s="36" t="n">
+        <f aca="false">SUM(E7:E387)</f>
         <v>80.5</v>
       </c>
-      <c r="F387" s="36" t="n">
-        <f aca="false">SUM(F7:F386)</f>
-        <v>275.5</v>
-      </c>
-      <c r="G387" s="36" t="n">
-        <f aca="false">SUM(G7:G386)</f>
+      <c r="F388" s="36" t="n">
+        <f aca="false">SUM(F7:F387)</f>
+        <v>280.5</v>
+      </c>
+      <c r="G388" s="36" t="n">
+        <f aca="false">SUM(G7:G387)</f>
         <v>96</v>
       </c>
-      <c r="H387" s="37"/>
-      <c r="I387" s="37"/>
-      <c r="J387" s="35"/>
-      <c r="K387" s="35"/>
-      <c r="L387" s="35"/>
-      <c r="M387" s="35"/>
-      <c r="N387" s="35"/>
-      <c r="O387" s="35"/>
-      <c r="P387" s="35"/>
-      <c r="Q387" s="35"/>
-      <c r="R387" s="35"/>
-      <c r="S387" s="35"/>
-      <c r="T387" s="35"/>
-      <c r="U387" s="35"/>
-      <c r="V387" s="35"/>
-      <c r="W387" s="35"/>
-      <c r="X387" s="35"/>
-      <c r="Y387" s="35"/>
-      <c r="Z387" s="35"/>
-    </row>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D388" s="38"/>
-      <c r="E388" s="38"/>
+      <c r="H388" s="37"/>
+      <c r="I388" s="37"/>
+      <c r="J388" s="35"/>
+      <c r="K388" s="35"/>
+      <c r="L388" s="35"/>
+      <c r="M388" s="35"/>
+      <c r="N388" s="35"/>
+      <c r="O388" s="35"/>
+      <c r="P388" s="35"/>
+      <c r="Q388" s="35"/>
+      <c r="R388" s="35"/>
+      <c r="S388" s="35"/>
+      <c r="T388" s="35"/>
+      <c r="U388" s="35"/>
+      <c r="V388" s="35"/>
+      <c r="W388" s="35"/>
+      <c r="X388" s="35"/>
+      <c r="Y388" s="35"/>
+      <c r="Z388" s="35"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D389" s="38"/>
@@ -8790,7 +8817,11 @@
       <c r="D397" s="38"/>
       <c r="E397" s="38"/>
     </row>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D398" s="38"/>
+      <c r="E398" s="38"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8809,11 +8840,11 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="18.42"/>
@@ -8837,14 +8868,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="44" t="n">
-        <f aca="false">Tasks!D387</f>
+        <f aca="false">Tasks!D388</f>
         <v>386.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="40"/>
       <c r="B4" s="45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C4" s="46" t="n">
         <v>55</v>
@@ -8853,7 +8884,7 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="40"/>
       <c r="B5" s="47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C5" s="48" t="n">
         <f aca="false">C3*C4</f>
@@ -8864,7 +8895,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="40"/>
       <c r="B7" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="50"/>
     </row>
@@ -8874,14 +8905,14 @@
         <v>5</v>
       </c>
       <c r="C8" s="52" t="n">
-        <f aca="false">Tasks!E387</f>
+        <f aca="false">Tasks!E388</f>
         <v>80.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="40"/>
       <c r="B9" s="53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C9" s="54" t="n">
         <v>100</v>
@@ -8890,7 +8921,7 @@
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="40"/>
       <c r="B10" s="55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C10" s="56" t="n">
         <f aca="false">C8*C9</f>
@@ -8901,7 +8932,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="40"/>
       <c r="B12" s="57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" s="58"/>
     </row>
@@ -8911,14 +8942,14 @@
         <v>5</v>
       </c>
       <c r="C13" s="60" t="n">
-        <f aca="false">Tasks!F387</f>
-        <v>275.5</v>
+        <f aca="false">Tasks!F388</f>
+        <v>280.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="40"/>
       <c r="B14" s="61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C14" s="62" t="n">
         <v>100</v>
@@ -8927,11 +8958,11 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="40"/>
       <c r="B15" s="63" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C15" s="64" t="n">
         <f aca="false">C13*C14</f>
-        <v>27550</v>
+        <v>28050</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8948,14 +8979,14 @@
         <v>5</v>
       </c>
       <c r="C18" s="68" t="n">
-        <f aca="false">Tasks!G387</f>
+        <f aca="false">Tasks!G388</f>
         <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="40"/>
       <c r="B19" s="69" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C19" s="70" t="n">
         <v>100</v>
@@ -8964,7 +8995,7 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="40"/>
       <c r="B20" s="71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C20" s="72" t="n">
         <f aca="false">C18*C19</f>
@@ -8975,30 +9006,30 @@
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="40"/>
       <c r="B22" s="73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C22" s="74" t="n">
         <f aca="false">C3+C8+C13+C18</f>
-        <v>838.5</v>
+        <v>843.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="40"/>
       <c r="B23" s="75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C23" s="76" t="n">
         <f aca="false">C5+C10+C15+C20</f>
-        <v>66457.5</v>
+        <v>66957.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C24" s="76" t="n">
         <f aca="false">C23/C22</f>
-        <v>79.257602862254</v>
+        <v>79.380557202134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Tiger/TimeTracking.xlsx
+++ b/Tiger/TimeTracking.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">Simple device speed testing with simulated ML math (too simple!)</t>
   </si>
   <si>
-    <t xml:space="preserve">Eval script refactoring</t>
+    <t xml:space="preserve">Eval baseline script refactoring</t>
   </si>
   <si>
     <t xml:space="preserve">Sum hours</t>
@@ -2623,8 +2623,8 @@
   </sheetPr>
   <dimension ref="A1:Z399"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C375" activeCellId="0" sqref="C375"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B376" activeCellId="0" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -8840,7 +8840,7 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/Tiger/TimeTracking.xlsx
+++ b/Tiger/TimeTracking.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="363">
   <si>
     <t xml:space="preserve">T3 - Tiger Time Tracking</t>
   </si>
@@ -1593,6 +1593,12 @@
   </si>
   <si>
     <t xml:space="preserve">Eval baseline script refactoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transformer.js embeddings + brute-force k-nn + eval + viz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">project structure refactoring (tsconfig &amp; vite hierarchy + sveltekit.config… oh boy!)</t>
   </si>
   <si>
     <t xml:space="preserve">Sum hours</t>
@@ -2623,11 +2629,11 @@
   </sheetPr>
   <dimension ref="A1:Z399"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A351" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B376" activeCellId="0" sqref="B376"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A344" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B378" activeCellId="0" sqref="B378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="87.29"/>
@@ -8668,14 +8674,36 @@
       <c r="G375" s="23"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="D376" s="20"/>
       <c r="E376" s="21"/>
-      <c r="F376" s="22"/>
+      <c r="F376" s="22" t="n">
+        <v>4</v>
+      </c>
       <c r="G376" s="23"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="D377" s="20"/>
-      <c r="E377" s="21"/>
+      <c r="E377" s="21" t="n">
+        <v>4</v>
+      </c>
       <c r="F377" s="22"/>
       <c r="G377" s="23"/>
     </row>
@@ -8741,7 +8769,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="33" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B388" s="34"/>
       <c r="C388" s="35"/>
@@ -8751,11 +8779,11 @@
       </c>
       <c r="E388" s="36" t="n">
         <f aca="false">SUM(E7:E387)</f>
-        <v>80.5</v>
+        <v>84.5</v>
       </c>
       <c r="F388" s="36" t="n">
         <f aca="false">SUM(F7:F387)</f>
-        <v>280.5</v>
+        <v>284.5</v>
       </c>
       <c r="G388" s="36" t="n">
         <f aca="false">SUM(G7:G387)</f>
@@ -8844,7 +8872,7 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="18.42"/>
@@ -8875,7 +8903,7 @@
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="40"/>
       <c r="B4" s="45" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C4" s="46" t="n">
         <v>55</v>
@@ -8884,7 +8912,7 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="40"/>
       <c r="B5" s="47" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C5" s="48" t="n">
         <f aca="false">C3*C4</f>
@@ -8895,7 +8923,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="40"/>
       <c r="B7" s="49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C7" s="50"/>
     </row>
@@ -8906,13 +8934,13 @@
       </c>
       <c r="C8" s="52" t="n">
         <f aca="false">Tasks!E388</f>
-        <v>80.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="40"/>
       <c r="B9" s="53" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C9" s="54" t="n">
         <v>100</v>
@@ -8921,18 +8949,18 @@
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="40"/>
       <c r="B10" s="55" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C10" s="56" t="n">
         <f aca="false">C8*C9</f>
-        <v>8050</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="40"/>
       <c r="B12" s="57" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C12" s="58"/>
     </row>
@@ -8943,13 +8971,13 @@
       </c>
       <c r="C13" s="60" t="n">
         <f aca="false">Tasks!F388</f>
-        <v>280.5</v>
+        <v>284.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="40"/>
       <c r="B14" s="61" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C14" s="62" t="n">
         <v>100</v>
@@ -8958,11 +8986,11 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="40"/>
       <c r="B15" s="63" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C15" s="64" t="n">
         <f aca="false">C13*C14</f>
-        <v>28050</v>
+        <v>28450</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8986,7 +9014,7 @@
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="40"/>
       <c r="B19" s="69" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C19" s="70" t="n">
         <v>100</v>
@@ -8995,7 +9023,7 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="40"/>
       <c r="B20" s="71" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C20" s="72" t="n">
         <f aca="false">C18*C19</f>
@@ -9006,30 +9034,30 @@
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="40"/>
       <c r="B22" s="73" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C22" s="74" t="n">
         <f aca="false">C3+C8+C13+C18</f>
-        <v>843.5</v>
+        <v>851.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="40"/>
       <c r="B23" s="75" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C23" s="76" t="n">
         <f aca="false">C5+C10+C15+C20</f>
-        <v>66957.5</v>
+        <v>67757.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="77" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C24" s="76" t="n">
         <f aca="false">C23/C22</f>
-        <v>79.380557202134</v>
+        <v>79.5742806811509</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
